--- a/Output_analysis/Linear_regression_with_PCA_cluster_number_1.xlsx
+++ b/Output_analysis/Linear_regression_with_PCA_cluster_number_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,7 +485,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -494,26 +494,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Poverty $3.65 a day (% of population)</t>
+          <t>Global_Peace_Index_2023</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-0.17273584905114</v>
+        <v>0.0008195939628222648</v>
       </c>
       <c r="F2" t="n">
-        <v>46.85622487202973</v>
+        <v>2.043276258792333</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.4018786279510858</v>
+        <v>0.3325371285199367</v>
       </c>
       <c r="H2" t="n">
-        <v>0.006849643098545471</v>
+        <v>0.0131177772303226</v>
       </c>
       <c r="I2" t="n">
-        <v>0.06073132981240709</v>
+        <v>0.0003192815985429019</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4018786279510858</v>
+        <v>0.3325371285199367</v>
       </c>
     </row>
     <row r="3">
@@ -521,7 +521,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -530,26 +530,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Global_Peace_Index_2023</t>
+          <t>GDP growth (annual %)</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.003462659719862266</v>
+        <v>-0.01048215250608191</v>
       </c>
       <c r="F3" t="n">
-        <v>2.349796331454555</v>
+        <v>3.529345928069386</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3942559949056634</v>
+        <v>-0.3269925577776288</v>
       </c>
       <c r="H3" t="n">
-        <v>0.008895674063337673</v>
+        <v>0.0114764102549697</v>
       </c>
       <c r="I3" t="n">
-        <v>0.001260536435713065</v>
+        <v>0.004012539814708726</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3942559949056634</v>
+        <v>0.3269925577776288</v>
       </c>
     </row>
     <row r="4">
@@ -557,7 +557,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -566,26 +566,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Current health expenditure (% of GDP)</t>
+          <t>not free</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>-0.01718268884723115</v>
+        <v>-0.001487786407224798</v>
       </c>
       <c r="F4" t="n">
-        <v>5.637231735587519</v>
+        <v>0.6154136249879394</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.3197455773868642</v>
+        <v>-0.3026485985801493</v>
       </c>
       <c r="H4" t="n">
-        <v>0.03899976174440513</v>
+        <v>0.0177519313003528</v>
       </c>
       <c r="I4" t="n">
-        <v>0.008050769239156196</v>
+        <v>0.0006099797123399836</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3197455773868642</v>
+        <v>0.3026485985801493</v>
       </c>
     </row>
     <row r="5">
@@ -593,7 +593,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -602,26 +602,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Industry (including construction), value added (% of GDP)</t>
+          <t>Adolescents out of school (% of lower secondary school age)</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-0.06209690710515454</v>
+        <v>0.01982356676562205</v>
       </c>
       <c r="F5" t="n">
-        <v>26.59376875617071</v>
+        <v>5.353219274747942</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.3179655389670172</v>
+        <v>0.261209991554877</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03543469381034681</v>
+        <v>0.04764252654486256</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02857067213047769</v>
+        <v>0.009789312830501759</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3179655389670172</v>
+        <v>0.261209991554877</v>
       </c>
     </row>
     <row r="6">
@@ -629,7 +629,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -638,26 +638,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Poverty $6.85 a day (% of population)</t>
+          <t>Access to electricity (% of population)</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>-0.1454758826154753</v>
+        <v>-0.005525857438132836</v>
       </c>
       <c r="F6" t="n">
-        <v>71.19880290681543</v>
+        <v>98.97488709027371</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.3142271723643411</v>
+        <v>-0.2351356781159485</v>
       </c>
       <c r="H6" t="n">
-        <v>0.05139517353092187</v>
+        <v>0.08698054474923757</v>
       </c>
       <c r="I6" t="n">
-        <v>0.07225564115158346</v>
+        <v>0.003167590327374757</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3142271723643411</v>
+        <v>0.2351356781159485</v>
       </c>
     </row>
     <row r="7">
@@ -665,7 +665,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -674,26 +674,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Poverty $2.15 a day (% of population)</t>
+          <t>Population growth (annual %)</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>-0.1000462165817036</v>
+        <v>-0.00201795374613156</v>
       </c>
       <c r="F7" t="n">
-        <v>25.01054191548344</v>
+        <v>1.172810198803988</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.3047064499756587</v>
+        <v>-0.2316122998824631</v>
       </c>
       <c r="H7" t="n">
-        <v>0.04431349638328653</v>
+        <v>0.07248888422933635</v>
       </c>
       <c r="I7" t="n">
-        <v>0.04825417357768377</v>
+        <v>0.001103445260072974</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3047064499756587</v>
+        <v>0.2316122998824631</v>
       </c>
     </row>
     <row r="8">
@@ -701,7 +701,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -710,26 +710,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Inflation, consumer prices (annual %)</t>
+          <t>doing business score</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>-0.03194917041246872</v>
+        <v>-0.01784051722057783</v>
       </c>
       <c r="F8" t="n">
-        <v>8.306550942254276</v>
+        <v>64.47051345395225</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.3004627004547143</v>
+        <v>-0.2223917862595531</v>
       </c>
       <c r="H8" t="n">
-        <v>0.05629195552976991</v>
+        <v>0.09336651379373742</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01624018994207726</v>
+        <v>0.01045154068664048</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3004627004547143</v>
+        <v>0.2223917862595531</v>
       </c>
     </row>
     <row r="9">
@@ -746,26 +746,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Consumer price index (2010 = 100)</t>
+          <t>Armed forces (% labor force)</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>-0.385678830301969</v>
+        <v>0.001805411915150849</v>
       </c>
       <c r="F9" t="n">
-        <v>189.5115886395722</v>
+        <v>1.061388067147835</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.2776603240940162</v>
+        <v>0.2180422717630652</v>
       </c>
       <c r="H9" t="n">
-        <v>0.08700619564619821</v>
+        <v>0.103231875297187</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2193762216809208</v>
+        <v>0.001089625052080524</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2776603240940162</v>
+        <v>0.2180422717630652</v>
       </c>
     </row>
     <row r="10">
@@ -773,7 +773,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -782,26 +782,26 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Control of Corruption: Estimate</t>
+          <t>Unemployment, total (% of total labor force) (modeled ILO estimate)</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>-0.002778923074625457</v>
+        <v>0.01146949108740643</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.7366653852341513</v>
+        <v>6.674650573993267</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.2680195695505498</v>
+        <v>0.2171522190041117</v>
       </c>
       <c r="H10" t="n">
-        <v>0.07857745345744346</v>
+        <v>0.09852057631365801</v>
       </c>
       <c r="I10" t="n">
-        <v>0.00154133871688685</v>
+        <v>0.006828944117681879</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2680195695505498</v>
+        <v>0.2171522190041117</v>
       </c>
     </row>
     <row r="11">
@@ -809,7 +809,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -818,26 +818,26 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Access to electricity (% of population)</t>
+          <t>precipitation (mm per year)</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.1373744955803738</v>
+        <v>1.72269199785039</v>
       </c>
       <c r="F11" t="n">
-        <v>43.60763734325617</v>
+        <v>839.8545168317868</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2669439296908073</v>
+        <v>0.2156491305607741</v>
       </c>
       <c r="H11" t="n">
-        <v>0.07983016700227372</v>
+        <v>0.09509116143072231</v>
       </c>
       <c r="I11" t="n">
-        <v>0.07652594668205771</v>
+        <v>1.015531109648933</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2669439296908073</v>
+        <v>0.2156491305607741</v>
       </c>
     </row>
     <row r="12">
@@ -845,7 +845,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -854,26 +854,26 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Unemployment advanced education</t>
+          <t>Human capital index (HCI) (scale 0-1)</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.02038260055435434</v>
+        <v>-0.0001329366749600355</v>
       </c>
       <c r="F12" t="n">
-        <v>5.715638904385479</v>
+        <v>0.5709865598457494</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2436938183983935</v>
+        <v>-0.1832113889637641</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1109174187516466</v>
+        <v>0.1725205157013072</v>
       </c>
       <c r="I12" t="n">
-        <v>0.01251687739713716</v>
+        <v>9.618270954860438e-05</v>
       </c>
       <c r="J12" t="n">
-        <v>0.2436938183983935</v>
+        <v>0.1832113889637641</v>
       </c>
     </row>
     <row r="13">
@@ -881,7 +881,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -890,26 +890,26 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Corruption index 2023</t>
+          <t>Agricultural irrigated land (% of total agricultural land)</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>-0.04400464030742451</v>
+        <v>-0.009647210974560028</v>
       </c>
       <c r="F13" t="n">
-        <v>31.17909219285452</v>
+        <v>4.025034349923811</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.2361620332756549</v>
+        <v>-0.1780747984742787</v>
       </c>
       <c r="H13" t="n">
-        <v>0.122746736270825</v>
+        <v>0.1891637246243187</v>
       </c>
       <c r="I13" t="n">
-        <v>0.02793843480531177</v>
+        <v>0.007254458756448241</v>
       </c>
       <c r="J13" t="n">
-        <v>0.2361620332756549</v>
+        <v>0.1780747984742787</v>
       </c>
     </row>
     <row r="14">
@@ -917,7 +917,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -926,26 +926,26 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Total alcohol consumption per capita (liters of pure alcohol, projected estimates, 15+ years of age)</t>
+          <t>Population in urban agglomerations of more than 1 million (% of total population)</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>-0.009795252070837627</v>
+        <v>-0.02590136072063436</v>
       </c>
       <c r="F14" t="n">
-        <v>2.827857737951152</v>
+        <v>22.14826924938328</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.2057009918918448</v>
+        <v>-0.1673820642283417</v>
       </c>
       <c r="H14" t="n">
-        <v>0.2028823019178566</v>
+        <v>0.2011429096921661</v>
       </c>
       <c r="I14" t="n">
-        <v>0.007559607576708988</v>
+        <v>0.02003221871250425</v>
       </c>
       <c r="J14" t="n">
-        <v>0.2057009918918448</v>
+        <v>0.1673820642283417</v>
       </c>
     </row>
     <row r="15">
@@ -953,7 +953,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -962,26 +962,26 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Unemployment basic education </t>
+          <t>clean fuels for cooking (% of population)</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.01150095134662262</v>
+        <v>0.04395117388327775</v>
       </c>
       <c r="F15" t="n">
-        <v>2.998688667710782</v>
+        <v>75.58851277384055</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2003550509298919</v>
+        <v>0.1661025536286895</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1976729605331926</v>
+        <v>0.2127131024356077</v>
       </c>
       <c r="I15" t="n">
-        <v>0.008783042894503558</v>
+        <v>0.03486782450435527</v>
       </c>
       <c r="J15" t="n">
-        <v>0.2003550509298919</v>
+        <v>0.1661025536286895</v>
       </c>
     </row>
     <row r="16">
@@ -989,7 +989,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -998,26 +998,26 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Death rate, crude (per 1,000 people)</t>
+          <t>Population density</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.006194526277388528</v>
+        <v>0.1628615124890191</v>
       </c>
       <c r="F16" t="n">
-        <v>7.63945874812792</v>
+        <v>105.4257641812977</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1947513439103187</v>
+        <v>0.1598545472082335</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2223978160450001</v>
+        <v>0.2392563914802746</v>
       </c>
       <c r="I16" t="n">
-        <v>0.004995731640350399</v>
+        <v>0.1368597034021012</v>
       </c>
       <c r="J16" t="n">
-        <v>0.1947513439103187</v>
+        <v>0.1598545472082335</v>
       </c>
     </row>
     <row r="17">
@@ -1025,7 +1025,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1034,26 +1034,26 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Fertility rate, total (births per woman)</t>
+          <t>Educational attainment, at least Master's or equivalent, population 25+, total (%) (cumulative)</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.002843234714229251</v>
+        <v>-0.002602743089732352</v>
       </c>
       <c r="F17" t="n">
-        <v>4.43806542333826</v>
+        <v>1.718156322606846</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1900842816987224</v>
+        <v>-0.1591695570942912</v>
       </c>
       <c r="H17" t="n">
-        <v>0.2597999341998392</v>
+        <v>0.2457485530033144</v>
       </c>
       <c r="I17" t="n">
-        <v>0.002482225644782786</v>
+        <v>0.002217486867747039</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1900842816987224</v>
+        <v>0.1591695570942912</v>
       </c>
     </row>
     <row r="18">
@@ -1061,7 +1061,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1070,26 +1070,26 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Birth rate, crude (per 1,000 people)</t>
+          <t>partly free</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.01903443024347446</v>
+        <v>0.0006991241437298826</v>
       </c>
       <c r="F18" t="n">
-        <v>34.03969502194939</v>
+        <v>0.2851900955277282</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1892167151008174</v>
+        <v>0.1512932119429521</v>
       </c>
       <c r="H18" t="n">
-        <v>0.2360768841524592</v>
+        <v>0.2444618650982639</v>
       </c>
       <c r="I18" t="n">
-        <v>0.01581724986576357</v>
+        <v>0.0005946763422315617</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1892167151008174</v>
+        <v>0.1512932119429521</v>
       </c>
     </row>
     <row r="19">
@@ -1097,7 +1097,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1106,26 +1106,26 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Cost of business start-up (% of GNI per capita)</t>
+          <t>GDP (constant 2015 US$)</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>-0.09811564734383027</v>
+        <v>-322761564.3166361</v>
       </c>
       <c r="F19" t="n">
-        <v>36.09296469474458</v>
+        <v>191990502577.63</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.187365772078079</v>
+        <v>-0.1499015884318161</v>
       </c>
       <c r="H19" t="n">
-        <v>0.2469796226713395</v>
+        <v>0.2987861507122662</v>
       </c>
       <c r="I19" t="n">
-        <v>0.08344417713887141</v>
+        <v>307269813.9167221</v>
       </c>
       <c r="J19" t="n">
-        <v>0.187365772078079</v>
+        <v>0.1499015884318161</v>
       </c>
     </row>
     <row r="20">
@@ -1133,7 +1133,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1142,26 +1142,26 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Unemployment intermediate education</t>
+          <t>Arable land (hectares per person)</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.01119907254966384</v>
+        <v>-0.0001813627155035241</v>
       </c>
       <c r="F20" t="n">
-        <v>4.95108500692966</v>
+        <v>0.1401381034421104</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1718393262459486</v>
+        <v>-0.1496230982377821</v>
       </c>
       <c r="H20" t="n">
-        <v>0.2826894652571681</v>
+        <v>0.25802657501876</v>
       </c>
       <c r="I20" t="n">
-        <v>0.01028060160077258</v>
+        <v>0.0001587433008597534</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1718393262459486</v>
+        <v>0.1496230982377821</v>
       </c>
     </row>
     <row r="21">
@@ -1169,7 +1169,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1178,26 +1178,26 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Armed forces (% labor force)</t>
+          <t>GDP per capita, PPP (constant 2021 international $)</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.001234943485899982</v>
+        <v>9.89979230153326</v>
       </c>
       <c r="F21" t="n">
-        <v>0.3904962772627255</v>
+        <v>13628.99866624763</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1667622607874012</v>
+        <v>0.1467573843969175</v>
       </c>
       <c r="H21" t="n">
-        <v>0.3037256203815925</v>
+        <v>0.2849862672073805</v>
       </c>
       <c r="I21" t="n">
-        <v>0.001184494814343646</v>
+        <v>9.165585802345396</v>
       </c>
       <c r="J21" t="n">
-        <v>0.1667622607874012</v>
+        <v>0.1467573843969175</v>
       </c>
     </row>
     <row r="22">
@@ -1205,7 +1205,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1214,26 +1214,26 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Time to start a business (days)</t>
+          <t>Armed forces personnel, total</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>-0.0374248614787516</v>
+        <v>-318.7174109859532</v>
       </c>
       <c r="F22" t="n">
-        <v>17.77772249228535</v>
+        <v>208696.7803386522</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.1625698852234365</v>
+        <v>-0.1453446260646064</v>
       </c>
       <c r="H22" t="n">
-        <v>0.3098489077037749</v>
+        <v>0.3088432001395876</v>
       </c>
       <c r="I22" t="n">
-        <v>0.03637237170229068</v>
+        <v>309.936250696561</v>
       </c>
       <c r="J22" t="n">
-        <v>0.1625698852234365</v>
+        <v>0.1453446260646064</v>
       </c>
     </row>
     <row r="23">
@@ -1241,7 +1241,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1250,26 +1250,26 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Unemployment, total (% of total labor force) (modeled ILO estimate)</t>
+          <t>GDP per capita (constant 2015 US$)</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.01064778170627822</v>
+        <v>5.559688286276498</v>
       </c>
       <c r="F23" t="n">
-        <v>4.803715632715466</v>
+        <v>5849.362976264375</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1507385260926554</v>
+        <v>0.1451460365513307</v>
       </c>
       <c r="H23" t="n">
-        <v>0.3531776118043989</v>
+        <v>0.2858182595152677</v>
       </c>
       <c r="I23" t="n">
-        <v>0.01132797063006483</v>
+        <v>5.157328364552827</v>
       </c>
       <c r="J23" t="n">
-        <v>0.1507385260926554</v>
+        <v>0.1451460365513307</v>
       </c>
     </row>
     <row r="24">
@@ -1277,7 +1277,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1286,26 +1286,26 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve">%  Poverty headcount ratio </t>
+          <t>Central government debt, total (% of GDP)</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>-0.05268275408321441</v>
+        <v>-0.02525823611521028</v>
       </c>
       <c r="F24" t="n">
-        <v>27.92891245202</v>
+        <v>12.6661821871298</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.1389322010298641</v>
+        <v>-0.1286587175747512</v>
       </c>
       <c r="H24" t="n">
-        <v>0.3684320951686232</v>
+        <v>0.3357915498521533</v>
       </c>
       <c r="I24" t="n">
-        <v>0.05794400628256933</v>
+        <v>0.02601628326217974</v>
       </c>
       <c r="J24" t="n">
-        <v>0.1389322010298641</v>
+        <v>0.1286587175747512</v>
       </c>
     </row>
     <row r="25">
@@ -1313,7 +1313,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1322,26 +1322,26 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>clean fuels for cooking (% of population)</t>
+          <t>immigration_flow</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.05129958980576903</v>
+        <v>24.69663408198168</v>
       </c>
       <c r="F25" t="n">
-        <v>15.70315303951308</v>
+        <v>12664.94384565069</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1386370357303073</v>
+        <v>0.1203594107683827</v>
       </c>
       <c r="H25" t="n">
-        <v>0.3752902898255893</v>
+        <v>0.4001834626553082</v>
       </c>
       <c r="I25" t="n">
-        <v>0.05723061994224916</v>
+        <v>29.09986590628446</v>
       </c>
       <c r="J25" t="n">
-        <v>0.1386370357303073</v>
+        <v>0.1203594107683827</v>
       </c>
     </row>
     <row r="26">
@@ -1349,7 +1349,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1358,26 +1358,26 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Human Capital Index</t>
+          <t>Rural population (% of total population)</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.000103501473280465</v>
+        <v>0.01838606297409461</v>
       </c>
       <c r="F26" t="n">
-        <v>0.2999507719093463</v>
+        <v>36.67456687135113</v>
       </c>
       <c r="G26" t="n">
-        <v>0.138209079011916</v>
+        <v>0.09730563238429164</v>
       </c>
       <c r="H26" t="n">
-        <v>0.4079539033388482</v>
+        <v>0.4556481333471951</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0001236148620037723</v>
+        <v>0.02448267844242059</v>
       </c>
       <c r="J26" t="n">
-        <v>0.138209079011916</v>
+        <v>0.09730563238429164</v>
       </c>
     </row>
     <row r="27">
@@ -1385,7 +1385,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1394,26 +1394,26 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Government expenditure on education, total (% of GDP)</t>
+          <t>Birth rate, crude (per 1,000 people)</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>-0.004536562496821261</v>
+        <v>0.005393563086925098</v>
       </c>
       <c r="F27" t="n">
-        <v>3.472087591507348</v>
+        <v>16.96487252460826</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.1326279313502298</v>
+        <v>0.09541814820152258</v>
       </c>
       <c r="H27" t="n">
-        <v>0.3907666185505142</v>
+        <v>0.4644776885528139</v>
       </c>
       <c r="I27" t="n">
-        <v>0.005231347953377334</v>
+        <v>0.007325422437289448</v>
       </c>
       <c r="J27" t="n">
-        <v>0.1326279313502298</v>
+        <v>0.09541814820152258</v>
       </c>
     </row>
     <row r="28">
@@ -1421,7 +1421,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1430,26 +1430,26 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Life expectancy at birth, total (years)</t>
+          <t>Children out of school (% of primary school age)</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>-0.01140859345514283</v>
+        <v>0.006325637643069619</v>
       </c>
       <c r="F28" t="n">
-        <v>62.55766975312913</v>
+        <v>3.093226095173635</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.1193523914524832</v>
+        <v>0.09409154647635272</v>
       </c>
       <c r="H28" t="n">
-        <v>0.4403116629789879</v>
+        <v>0.4903398649039071</v>
       </c>
       <c r="I28" t="n">
-        <v>0.01464403740625122</v>
+        <v>0.00910805849435796</v>
       </c>
       <c r="J28" t="n">
-        <v>0.1193523914524832</v>
+        <v>0.09409154647635272</v>
       </c>
     </row>
     <row r="29">
@@ -1457,7 +1457,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1466,26 +1466,26 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Military expenditure (% of GDP)</t>
+          <t>Population, total</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>-0.001960920002376423</v>
+        <v>-42250.88689911614</v>
       </c>
       <c r="F29" t="n">
-        <v>1.568306748897486</v>
+        <v>39895203.58337429</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.1191298870716631</v>
+        <v>-0.08746475107047513</v>
       </c>
       <c r="H29" t="n">
-        <v>0.4467267921786686</v>
+        <v>0.5416567779855641</v>
       </c>
       <c r="I29" t="n">
-        <v>0.002552368655658548</v>
+        <v>68744.37125795016</v>
       </c>
       <c r="J29" t="n">
-        <v>0.1191298870716631</v>
+        <v>0.08746475107047513</v>
       </c>
     </row>
     <row r="30">
@@ -1493,7 +1493,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1502,26 +1502,26 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>GDP growth (annual %)</t>
+          <t>Intentional homicides (per 100,000 people)</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>-0.005864961609318852</v>
+        <v>0.003945009220540063</v>
       </c>
       <c r="F30" t="n">
-        <v>3.674103428613465</v>
+        <v>2.677241791679129</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.1189176911858446</v>
+        <v>0.08590942728295504</v>
       </c>
       <c r="H30" t="n">
-        <v>0.4475426027309041</v>
+        <v>0.5328626863540146</v>
       </c>
       <c r="I30" t="n">
-        <v>0.007647757127860549</v>
+        <v>0.006284354574145767</v>
       </c>
       <c r="J30" t="n">
-        <v>0.1189176911858446</v>
+        <v>0.08590942728295504</v>
       </c>
     </row>
     <row r="31">
@@ -1529,7 +1529,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1538,26 +1538,26 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Agricultural land (% )</t>
+          <t>Life expectancy at birth, total (years)</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.04361482033955327</v>
+        <v>-0.003231740211851694</v>
       </c>
       <c r="F31" t="n">
-        <v>47.24884205041701</v>
+        <v>74.07985679938177</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1115904486587017</v>
+        <v>-0.08405680455577731</v>
       </c>
       <c r="H31" t="n">
-        <v>0.4708141429076999</v>
+        <v>0.5231246983848106</v>
       </c>
       <c r="I31" t="n">
-        <v>0.05993236719247463</v>
+        <v>0.005030485012164732</v>
       </c>
       <c r="J31" t="n">
-        <v>0.1115904486587017</v>
+        <v>0.08405680455577731</v>
       </c>
     </row>
     <row r="32">
@@ -1565,7 +1565,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1574,26 +1574,26 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>doing business score</t>
+          <t>Fertility rate, total (births per woman)</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>-0.02151942005232169</v>
+        <v>0.0004953353243156917</v>
       </c>
       <c r="F32" t="n">
-        <v>51.3576862374865</v>
+        <v>2.184384693286231</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.1084280462655626</v>
+        <v>0.08125367433376712</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4888722937586497</v>
+        <v>0.5336043426615047</v>
       </c>
       <c r="I32" t="n">
-        <v>0.03081264315781083</v>
+        <v>0.00079102806316884</v>
       </c>
       <c r="J32" t="n">
-        <v>0.1084280462655626</v>
+        <v>0.08125367433376712</v>
       </c>
     </row>
     <row r="33">
@@ -1601,7 +1601,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1610,26 +1610,26 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Total debt service (% of GNI)</t>
+          <t>Military expenditure (% of GDP)</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>-0.003312143788259895</v>
+        <v>0.0009718055158195951</v>
       </c>
       <c r="F33" t="n">
-        <v>2.526679982922526</v>
+        <v>1.738303430391376</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.1040077022603758</v>
+        <v>0.07944759317316578</v>
       </c>
       <c r="H33" t="n">
-        <v>0.517542962531866</v>
+        <v>0.5568966238966846</v>
       </c>
       <c r="I33" t="n">
-        <v>0.005071653407578487</v>
+        <v>0.001644153305938649</v>
       </c>
       <c r="J33" t="n">
-        <v>0.1040077022603758</v>
+        <v>0.07944759317316578</v>
       </c>
     </row>
     <row r="34">
@@ -1637,7 +1637,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1646,26 +1646,26 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>precipitation (mm per year)</t>
+          <t>Total alcohol consumption per capita (liters of pure alcohol, projected estimates, 15+ years of age)</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>-1.271464641208238</v>
+        <v>-0.001966180835649675</v>
       </c>
       <c r="F34" t="n">
-        <v>1150.816412090809</v>
+        <v>4.100535740785175</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.1025630808671494</v>
+        <v>-0.0670290090801096</v>
       </c>
       <c r="H34" t="n">
-        <v>0.5128140249428179</v>
+        <v>0.6077689118040298</v>
       </c>
       <c r="I34" t="n">
-        <v>1.925861227091566</v>
+        <v>0.003810279527697985</v>
       </c>
       <c r="J34" t="n">
-        <v>0.1025630808671494</v>
+        <v>0.0670290090801096</v>
       </c>
     </row>
     <row r="35">
@@ -1673,7 +1673,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1682,26 +1682,26 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Level of water stress</t>
+          <t>Cost of business start-up (% of GNI per capita)</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.01866316474570701</v>
+        <v>0.006150038378746794</v>
       </c>
       <c r="F35" t="n">
-        <v>7.012020270818523</v>
+        <v>8.248750137782503</v>
       </c>
       <c r="G35" t="n">
-        <v>0.09845887852402262</v>
+        <v>0.06610592817457767</v>
       </c>
       <c r="H35" t="n">
-        <v>0.5564663580708635</v>
+        <v>0.634836281857438</v>
       </c>
       <c r="I35" t="n">
-        <v>0.03143864550549119</v>
+        <v>0.01287314719647571</v>
       </c>
       <c r="J35" t="n">
-        <v>0.09845887852402262</v>
+        <v>0.06610592817457767</v>
       </c>
     </row>
     <row r="36">
@@ -1709,7 +1709,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1718,26 +1718,26 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Current account balance (% of GDP)</t>
+          <t>Consumer price index (2010 = 100)</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.00907375588622733</v>
+        <v>-0.01635841414256791</v>
       </c>
       <c r="F36" t="n">
-        <v>-4.922042876090002</v>
+        <v>144.0713552732763</v>
       </c>
       <c r="G36" t="n">
-        <v>0.08108199509447124</v>
+        <v>-0.05939309518571649</v>
       </c>
       <c r="H36" t="n">
-        <v>0.6142941051893649</v>
+        <v>0.6726957592185765</v>
       </c>
       <c r="I36" t="n">
-        <v>0.01786068285696258</v>
+        <v>0.03849929729313142</v>
       </c>
       <c r="J36" t="n">
-        <v>0.08108199509447124</v>
+        <v>0.05939309518571649</v>
       </c>
     </row>
     <row r="37">
@@ -1745,7 +1745,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1754,26 +1754,26 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>GNI per capita (2015 US$)</t>
+          <t>Death rate, crude (per 1,000 people)</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>-0.7670600410835512</v>
+        <v>0.0007302480971717074</v>
       </c>
       <c r="F37" t="n">
-        <v>1102.36553098806</v>
+        <v>6.379292356365347</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.07321026956734955</v>
+        <v>0.0519197001315956</v>
       </c>
       <c r="H37" t="n">
-        <v>0.6408201013800132</v>
+        <v>0.7119657916440159</v>
       </c>
       <c r="I37" t="n">
-        <v>1.631918408250374</v>
+        <v>0.001966830914975457</v>
       </c>
       <c r="J37" t="n">
-        <v>0.07321026956734955</v>
+        <v>0.0519197001315956</v>
       </c>
     </row>
     <row r="38">
@@ -1781,7 +1781,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1790,26 +1790,26 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Population density</t>
+          <t>Arable land (% of land area)</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>-0.1026327003444637</v>
+        <v>0.004171874505938187</v>
       </c>
       <c r="F38" t="n">
-        <v>88.22047837436577</v>
+        <v>10.40120630024655</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.07141461622525788</v>
+        <v>0.0516443772874375</v>
       </c>
       <c r="H38" t="n">
-        <v>0.6614564125445787</v>
+        <v>0.7002321897592274</v>
       </c>
       <c r="I38" t="n">
-        <v>0.2325394043938329</v>
+        <v>0.01078038425441525</v>
       </c>
       <c r="J38" t="n">
-        <v>0.07141461622525788</v>
+        <v>0.0516443772874375</v>
       </c>
     </row>
     <row r="39">
@@ -1817,7 +1817,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1826,26 +1826,26 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Population growth (annual %)</t>
+          <t>Control of Corruption: Estimate</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.0007394833204645799</v>
+        <v>-0.0002405215901842478</v>
       </c>
       <c r="F39" t="n">
-        <v>2.434124696034472</v>
+        <v>-0.4707259065541261</v>
       </c>
       <c r="G39" t="n">
-        <v>0.05647715595369032</v>
+        <v>-0.05012486675826522</v>
       </c>
       <c r="H39" t="n">
-        <v>0.7224009762234853</v>
+        <v>0.7036951054993857</v>
       </c>
       <c r="I39" t="n">
-        <v>0.002066958864022119</v>
+        <v>0.0006292751314272082</v>
       </c>
       <c r="J39" t="n">
-        <v>0.05647715595369032</v>
+        <v>0.05012486675826522</v>
       </c>
     </row>
     <row r="40">
@@ -1853,7 +1853,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1862,26 +1862,26 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Population, total</t>
+          <t>Population in the largest city (% of urban population)</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>16221.51887979166</v>
+        <v>-0.005718282921257581</v>
       </c>
       <c r="F40" t="n">
-        <v>19321349.7403497</v>
+        <v>22.73565380261029</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05643037953699012</v>
+        <v>-0.03824739546651903</v>
       </c>
       <c r="H40" t="n">
-        <v>0.7364876478376289</v>
+        <v>0.7775850954782854</v>
       </c>
       <c r="I40" t="n">
-        <v>47833.78095144129</v>
+        <v>0.02014487322262082</v>
       </c>
       <c r="J40" t="n">
-        <v>0.05643037953699012</v>
+        <v>0.03824739546651903</v>
       </c>
     </row>
     <row r="41">
@@ -1889,7 +1889,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1898,26 +1898,26 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>% Firms using banks</t>
+          <t>Lifetime risk of maternal death (%)</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.007588572476064823</v>
+        <v>4.936482363490001e-05</v>
       </c>
       <c r="F41" t="n">
-        <v>5.480939671598784</v>
+        <v>0.1450251526152303</v>
       </c>
       <c r="G41" t="n">
-        <v>0.05615686166013077</v>
+        <v>0.03552358659033036</v>
       </c>
       <c r="H41" t="n">
-        <v>0.727288535928855</v>
+        <v>0.7893860446837888</v>
       </c>
       <c r="I41" t="n">
-        <v>0.02160424419607094</v>
+        <v>0.0001839454958539074</v>
       </c>
       <c r="J41" t="n">
-        <v>0.05615686166013077</v>
+        <v>0.03552358659033036</v>
       </c>
     </row>
     <row r="42">
@@ -1925,7 +1925,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1934,26 +1934,26 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>GDP per capita (constant 2015 US$)</t>
+          <t>Agricultural land (% )</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>-0.6639762751247431</v>
+        <v>-0.006284056160935474</v>
       </c>
       <c r="F42" t="n">
-        <v>1155.110697001647</v>
+        <v>40.28929943301256</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.0559075477994355</v>
+        <v>-0.02987056884248277</v>
       </c>
       <c r="H42" t="n">
-        <v>0.7185071005326524</v>
+        <v>0.8192411139872084</v>
       </c>
       <c r="I42" t="n">
-        <v>1.829690708262268</v>
+        <v>0.02737642424341509</v>
       </c>
       <c r="J42" t="n">
-        <v>0.0559075477994355</v>
+        <v>0.02987056884248277</v>
       </c>
     </row>
     <row r="43">
@@ -1961,7 +1961,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1970,26 +1970,26 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Population living in slums (% of urban population)</t>
+          <t>Corruption index 2023</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>-0.01219259995183392</v>
+        <v>-0.002677554705412676</v>
       </c>
       <c r="F43" t="n">
-        <v>47.02001622132359</v>
+        <v>35.8411205862002</v>
       </c>
       <c r="G43" t="n">
-        <v>-0.03892777604864701</v>
+        <v>-0.02965681024462214</v>
       </c>
       <c r="H43" t="n">
-        <v>0.8042594329356441</v>
+        <v>0.8235562983502465</v>
       </c>
       <c r="I43" t="n">
-        <v>0.04887823270438452</v>
+        <v>0.01195323384133091</v>
       </c>
       <c r="J43" t="n">
-        <v>0.03892777604864701</v>
+        <v>0.02965681024462214</v>
       </c>
     </row>
     <row r="44">
@@ -1997,7 +1997,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -2006,26 +2006,26 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Total debt service (% of exports of goods, services and primary income)</t>
+          <t>Inflation, consumer prices (annual %)</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>-0.004803391454586731</v>
+        <v>0.0005909917452671874</v>
       </c>
       <c r="F44" t="n">
-        <v>11.66094930990025</v>
+        <v>3.757954507267628</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.03472990252801402</v>
+        <v>0.02027292876085256</v>
       </c>
       <c r="H44" t="n">
-        <v>0.8271573575595919</v>
+        <v>0.8821042865407684</v>
       </c>
       <c r="I44" t="n">
-        <v>0.02185507731913432</v>
+        <v>0.003966238050354325</v>
       </c>
       <c r="J44" t="n">
-        <v>0.03472990252801402</v>
+        <v>0.02027292876085256</v>
       </c>
     </row>
     <row r="45">
@@ -2033,7 +2033,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -2042,26 +2042,26 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>government  consumption exp (% of GDP)</t>
+          <t>Educational attainment, at least completed primary, population 25+ years, total (%) (cumulative)</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>-0.00163660272050807</v>
+        <v>-0.002538268636814781</v>
       </c>
       <c r="F45" t="n">
-        <v>10.30490454310808</v>
+        <v>82.87765594792153</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.01455507047589415</v>
+        <v>-0.01893957243912029</v>
       </c>
       <c r="H45" t="n">
-        <v>0.9271066538061365</v>
+        <v>0.8867816933110948</v>
       </c>
       <c r="I45" t="n">
-        <v>0.01777677407178289</v>
+        <v>0.01774810865747953</v>
       </c>
       <c r="J45" t="n">
-        <v>0.01455507047589415</v>
+        <v>0.01893957243912029</v>
       </c>
     </row>
     <row r="46">
@@ -2069,7 +2069,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -2078,26 +2078,26 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>GDP per capita, PPP (constant 2021 international $)</t>
+          <t>Time to start a business (days)</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>-0.5376178203320587</v>
+        <v>-0.001036373525583784</v>
       </c>
       <c r="F46" t="n">
-        <v>3587.643594519432</v>
+        <v>18.75566083608974</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.01324638265230164</v>
+        <v>-0.008758234089331742</v>
       </c>
       <c r="H46" t="n">
-        <v>0.9319905372635685</v>
+        <v>0.9484451172385294</v>
       </c>
       <c r="I46" t="n">
-        <v>6.262007863464865</v>
+        <v>0.01595518188752771</v>
       </c>
       <c r="J46" t="n">
-        <v>0.01324638265230164</v>
+        <v>0.008758234089331742</v>
       </c>
     </row>
     <row r="47">
@@ -2105,7 +2105,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -2114,26 +2114,26 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Debt service (PPG and IMF only, % of exports of goods, services and primary income)</t>
+          <t>Level of water stress</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0.0009803510640743209</v>
+        <v>0.00126765133427357</v>
       </c>
       <c r="F47" t="n">
-        <v>7.271101119219811</v>
+        <v>43.34705748725798</v>
       </c>
       <c r="G47" t="n">
-        <v>0.01222936183167882</v>
+        <v>0.003280933570760231</v>
       </c>
       <c r="H47" t="n">
-        <v>0.9395088113355951</v>
+        <v>0.9808537662882414</v>
       </c>
       <c r="I47" t="n">
-        <v>0.01283550759277678</v>
+        <v>0.05257789117467433</v>
       </c>
       <c r="J47" t="n">
-        <v>0.01222936183167882</v>
+        <v>0.003280933570760231</v>
       </c>
     </row>
     <row r="48">
@@ -2141,7 +2141,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -2150,26 +2150,26 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>% of total population below 5 meters</t>
+          <t>Electric power consumption (kWh per capita)</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>-8.70535776732946e-05</v>
+        <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>1.839407656794129</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.001904444115862621</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.9904497606401391</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
-        <v>0.007227491801920415</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>0.001904444115862621</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2177,7 +2177,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Central government debt, total (% of GDP)</t>
+          <t>Children in employment, total (% of children ages 7-14)</t>
         </is>
       </c>
       <c r="E49" t="n">
@@ -2205,6 +2205,78 @@
         <v>0</v>
       </c>
       <c r="J49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>immigration_100k</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>23</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>immigration_100k</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Expenditure on secondary education (% of government expenditure on education)</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
         <v>0</v>
       </c>
     </row>
